--- a/bdados/disciplina_professores.xlsx
+++ b/bdados/disciplina_professores.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9585" windowHeight="5805" activeTab="1"/>
+    <workbookView windowWidth="10755" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prof_disc" sheetId="1" r:id="rId1"/>
     <sheet name="disc_nivel" sheetId="2" r:id="rId2"/>
+    <sheet name="nivel" sheetId="3" r:id="rId3"/>
+    <sheet name="prof_disc_nivel_turno" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="113">
   <si>
     <t>disciplina</t>
   </si>
@@ -361,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -377,7 +379,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,7 +394,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,6 +402,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +438,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -421,23 +453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,39 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +492,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -505,19 +522,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,15 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,139 +553,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,73 +715,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,103 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,38 +903,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,15 +934,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,11 +968,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,148 +1002,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,64 +1169,64 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A90"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1560,980 +1562,980 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="B28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="B29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="B30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="B37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="B39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="B40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="B41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
+      <c r="B42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="B43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="24" t="s">
+      <c r="B45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="24" t="s">
+      <c r="B46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="B52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="B53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="25" t="s">
+      <c r="B54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="25" t="s">
+      <c r="B55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25" t="s">
+      <c r="B56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
+      <c r="B57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="B58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="26" t="s">
+      <c r="B60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26" t="s">
+      <c r="B61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="26" t="s">
+      <c r="B62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="26" t="s">
+      <c r="B63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="B64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="B65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="B66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="B67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="B68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="B69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
+      <c r="B70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="B71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2608,238 +2610,238 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="B79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9" t="s">
+      <c r="B80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="B81" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="B82" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="B83" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="B84" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="17" t="s">
+      <c r="B85" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="17" t="s">
+      <c r="B86" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="17" t="s">
+      <c r="B87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="17" t="s">
+      <c r="B88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="17" t="s">
+      <c r="B89" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="B90" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="B91" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="B92" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="B93" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2868,97 +2870,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2974,4 +2976,1342 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="12.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>